--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>Name</t>
   </si>
@@ -219,6 +219,24 @@
   </si>
   <si>
     <t>\\uipathbot\Shared Files\Gesa Mortgage\Rohith\Release_2\Final_WorkFlows\Development\CloseLoan_ExportFilesTo_Nautilus\SharedPathTest</t>
+  </si>
+  <si>
+    <t>NautilusApplication_FilePath</t>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\Fiserv\Nautilus\Client\nauclt32.exe</t>
+  </si>
+  <si>
+    <t>Nautilus_WorkingDirectory</t>
+  </si>
+  <si>
+    <t>Nautilus_Argument</t>
+  </si>
+  <si>
+    <t>-AL</t>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\Fiserv\Nautilus\Client\</t>
   </si>
 </sst>
 </file>
@@ -283,7 +301,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -291,6 +309,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -572,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z949"/>
+  <dimension ref="A1:Z951"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -663,36 +682,57 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="6" t="b">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1629,6 +1669,8 @@
     <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\uipathbot\Shared Files\Gesa Mortgage\Rohith\Release_2\Final_WorkFlows\Development\CloseLoan_ExportFilesTo_Nautilus\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\uipathbot\Shared Files\Gesa Mortgage\Rohith\Release_2\Final_WorkFlows\Production\CloseLoan_ExportFilesTo_Nautilus\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
   <si>
     <t>Name</t>
   </si>
@@ -215,12 +215,6 @@
     <t>Nautilus_Queue</t>
   </si>
   <si>
-    <t>CloseLoan_ExportFilesTo_Nautilus</t>
-  </si>
-  <si>
-    <t>\\uipathbot\Shared Files\Gesa Mortgage\Rohith\Release_2\Final_WorkFlows\Development\CloseLoan_ExportFilesTo_Nautilus\SharedPathTest</t>
-  </si>
-  <si>
     <t>NautilusApplication_FilePath</t>
   </si>
   <si>
@@ -237,6 +231,15 @@
   </si>
   <si>
     <t>C:\Program Files (x86)\Fiserv\Nautilus\Client\</t>
+  </si>
+  <si>
+    <t>Close Loan and Export Files To Nautilus</t>
+  </si>
+  <si>
+    <t>Nautilus_Test</t>
+  </si>
+  <si>
+    <t>Nautilus_Prod</t>
   </si>
 </sst>
 </file>
@@ -301,11 +304,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
@@ -593,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z951"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -678,60 +680,51 @@
       <c r="A6" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>64</v>
+      <c r="B6" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
+      <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="6" t="b">
+      <c r="B11" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" t="s">
-        <v>65</v>
-      </c>
+      <c r="A13" s="4"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2902,8 +2895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="A8:B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2965,36 +2958,47 @@
       <c r="A4" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+    </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
   <si>
     <t>Name</t>
   </si>
@@ -240,6 +240,15 @@
   </si>
   <si>
     <t>Nautilus_Prod</t>
+  </si>
+  <si>
+    <t>SendTestMail</t>
+  </si>
+  <si>
+    <t>TestMailTo</t>
+  </si>
+  <si>
+    <t>shibani@digitalalign.com</t>
   </si>
 </sst>
 </file>
@@ -304,7 +313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -312,6 +321,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -596,7 +606,7 @@
   <dimension ref="A1:Z951"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B14"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -724,9 +734,21 @@
       <c r="B12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1665,8 +1687,11 @@
     <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B14" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2896,7 +2921,7 @@
   <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="78">
   <si>
     <t>Name</t>
   </si>
@@ -249,6 +249,13 @@
   </si>
   <si>
     <t>shibani@digitalalign.com</t>
+  </si>
+  <si>
+    <t>EmailTemplate</t>
+  </si>
+  <si>
+    <t>&lt;html&gt;&lt;body&gt;Hello,&lt;br&gt;We have completed the execution of following Loan numbers you requested for &lt;b&gt;{ProcessName} &lt;/b&gt; run.&lt;br&gt;Requestor : {RequestedBy}
+&lt;table border=1&gt;&lt;tr&gt;&lt;th&gt;Loan Number&lt;/th&gt;&lt;th&gt;Status&lt;/th&gt;&lt;th&gt;Exception Details&lt;/th&gt;&lt;/tr&gt;{PlaceHolder}&lt;/table&gt;&lt;br&gt;Regards,&lt;br&gt;BATMAN BOT&lt;/body&gt;&lt;/html&gt;</t>
   </si>
 </sst>
 </file>
@@ -313,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -322,6 +329,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2921,7 +2931,7 @@
   <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3026,7 +3036,14 @@
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
